--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_pred_processed.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_pred_processed.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,626 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
-  <si>
-    <t>spkitemid</t>
-  </si>
-  <si>
-    <t>sc1</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>scale_trim</t>
-  </si>
-  <si>
-    <t>scale_trim_round</t>
-  </si>
-  <si>
-    <t>RESPONSE_1</t>
-  </si>
-  <si>
-    <t>RESPONSE_2</t>
-  </si>
-  <si>
-    <t>RESPONSE_3</t>
-  </si>
-  <si>
-    <t>RESPONSE_4</t>
-  </si>
-  <si>
-    <t>RESPONSE_5</t>
-  </si>
-  <si>
-    <t>RESPONSE_6</t>
-  </si>
-  <si>
-    <t>RESPONSE_7</t>
-  </si>
-  <si>
-    <t>RESPONSE_8</t>
-  </si>
-  <si>
-    <t>RESPONSE_9</t>
-  </si>
-  <si>
-    <t>RESPONSE_10</t>
-  </si>
-  <si>
-    <t>RESPONSE_11</t>
-  </si>
-  <si>
-    <t>RESPONSE_12</t>
-  </si>
-  <si>
-    <t>RESPONSE_13</t>
-  </si>
-  <si>
-    <t>RESPONSE_14</t>
-  </si>
-  <si>
-    <t>RESPONSE_15</t>
-  </si>
-  <si>
-    <t>RESPONSE_16</t>
-  </si>
-  <si>
-    <t>RESPONSE_17</t>
-  </si>
-  <si>
-    <t>RESPONSE_18</t>
-  </si>
-  <si>
-    <t>RESPONSE_19</t>
-  </si>
-  <si>
-    <t>RESPONSE_20</t>
-  </si>
-  <si>
-    <t>RESPONSE_21</t>
-  </si>
-  <si>
-    <t>RESPONSE_22</t>
-  </si>
-  <si>
-    <t>RESPONSE_23</t>
-  </si>
-  <si>
-    <t>RESPONSE_24</t>
-  </si>
-  <si>
-    <t>RESPONSE_25</t>
-  </si>
-  <si>
-    <t>RESPONSE_26</t>
-  </si>
-  <si>
-    <t>RESPONSE_27</t>
-  </si>
-  <si>
-    <t>RESPONSE_28</t>
-  </si>
-  <si>
-    <t>RESPONSE_29</t>
-  </si>
-  <si>
-    <t>RESPONSE_30</t>
-  </si>
-  <si>
-    <t>RESPONSE_31</t>
-  </si>
-  <si>
-    <t>RESPONSE_32</t>
-  </si>
-  <si>
-    <t>RESPONSE_33</t>
-  </si>
-  <si>
-    <t>RESPONSE_34</t>
-  </si>
-  <si>
-    <t>RESPONSE_35</t>
-  </si>
-  <si>
-    <t>RESPONSE_36</t>
-  </si>
-  <si>
-    <t>RESPONSE_37</t>
-  </si>
-  <si>
-    <t>RESPONSE_38</t>
-  </si>
-  <si>
-    <t>RESPONSE_39</t>
-  </si>
-  <si>
-    <t>RESPONSE_40</t>
-  </si>
-  <si>
-    <t>RESPONSE_41</t>
-  </si>
-  <si>
-    <t>RESPONSE_42</t>
-  </si>
-  <si>
-    <t>RESPONSE_43</t>
-  </si>
-  <si>
-    <t>RESPONSE_44</t>
-  </si>
-  <si>
-    <t>RESPONSE_45</t>
-  </si>
-  <si>
-    <t>RESPONSE_46</t>
-  </si>
-  <si>
-    <t>RESPONSE_47</t>
-  </si>
-  <si>
-    <t>RESPONSE_48</t>
-  </si>
-  <si>
-    <t>RESPONSE_49</t>
-  </si>
-  <si>
-    <t>RESPONSE_50</t>
-  </si>
-  <si>
-    <t>RESPONSE_51</t>
-  </si>
-  <si>
-    <t>RESPONSE_52</t>
-  </si>
-  <si>
-    <t>RESPONSE_53</t>
-  </si>
-  <si>
-    <t>RESPONSE_54</t>
-  </si>
-  <si>
-    <t>RESPONSE_55</t>
-  </si>
-  <si>
-    <t>RESPONSE_56</t>
-  </si>
-  <si>
-    <t>RESPONSE_57</t>
-  </si>
-  <si>
-    <t>RESPONSE_58</t>
-  </si>
-  <si>
-    <t>RESPONSE_59</t>
-  </si>
-  <si>
-    <t>RESPONSE_60</t>
-  </si>
-  <si>
-    <t>RESPONSE_61</t>
-  </si>
-  <si>
-    <t>RESPONSE_62</t>
-  </si>
-  <si>
-    <t>RESPONSE_63</t>
-  </si>
-  <si>
-    <t>RESPONSE_64</t>
-  </si>
-  <si>
-    <t>RESPONSE_65</t>
-  </si>
-  <si>
-    <t>RESPONSE_66</t>
-  </si>
-  <si>
-    <t>RESPONSE_67</t>
-  </si>
-  <si>
-    <t>RESPONSE_68</t>
-  </si>
-  <si>
-    <t>RESPONSE_69</t>
-  </si>
-  <si>
-    <t>RESPONSE_70</t>
-  </si>
-  <si>
-    <t>RESPONSE_71</t>
-  </si>
-  <si>
-    <t>RESPONSE_72</t>
-  </si>
-  <si>
-    <t>RESPONSE_73</t>
-  </si>
-  <si>
-    <t>RESPONSE_74</t>
-  </si>
-  <si>
-    <t>RESPONSE_75</t>
-  </si>
-  <si>
-    <t>RESPONSE_76</t>
-  </si>
-  <si>
-    <t>RESPONSE_77</t>
-  </si>
-  <si>
-    <t>RESPONSE_78</t>
-  </si>
-  <si>
-    <t>RESPONSE_79</t>
-  </si>
-  <si>
-    <t>RESPONSE_80</t>
-  </si>
-  <si>
-    <t>RESPONSE_81</t>
-  </si>
-  <si>
-    <t>RESPONSE_82</t>
-  </si>
-  <si>
-    <t>RESPONSE_83</t>
-  </si>
-  <si>
-    <t>RESPONSE_84</t>
-  </si>
-  <si>
-    <t>RESPONSE_85</t>
-  </si>
-  <si>
-    <t>RESPONSE_86</t>
-  </si>
-  <si>
-    <t>RESPONSE_87</t>
-  </si>
-  <si>
-    <t>RESPONSE_88</t>
-  </si>
-  <si>
-    <t>RESPONSE_89</t>
-  </si>
-  <si>
-    <t>RESPONSE_90</t>
-  </si>
-  <si>
-    <t>RESPONSE_91</t>
-  </si>
-  <si>
-    <t>RESPONSE_92</t>
-  </si>
-  <si>
-    <t>RESPONSE_93</t>
-  </si>
-  <si>
-    <t>RESPONSE_94</t>
-  </si>
-  <si>
-    <t>RESPONSE_95</t>
-  </si>
-  <si>
-    <t>RESPONSE_96</t>
-  </si>
-  <si>
-    <t>RESPONSE_97</t>
-  </si>
-  <si>
-    <t>RESPONSE_98</t>
-  </si>
-  <si>
-    <t>RESPONSE_99</t>
-  </si>
-  <si>
-    <t>RESPONSE_100</t>
-  </si>
-  <si>
-    <t>RESPONSE_101</t>
-  </si>
-  <si>
-    <t>RESPONSE_102</t>
-  </si>
-  <si>
-    <t>RESPONSE_103</t>
-  </si>
-  <si>
-    <t>RESPONSE_104</t>
-  </si>
-  <si>
-    <t>RESPONSE_105</t>
-  </si>
-  <si>
-    <t>RESPONSE_106</t>
-  </si>
-  <si>
-    <t>RESPONSE_107</t>
-  </si>
-  <si>
-    <t>RESPONSE_108</t>
-  </si>
-  <si>
-    <t>RESPONSE_109</t>
-  </si>
-  <si>
-    <t>RESPONSE_110</t>
-  </si>
-  <si>
-    <t>RESPONSE_111</t>
-  </si>
-  <si>
-    <t>RESPONSE_112</t>
-  </si>
-  <si>
-    <t>RESPONSE_113</t>
-  </si>
-  <si>
-    <t>RESPONSE_114</t>
-  </si>
-  <si>
-    <t>RESPONSE_115</t>
-  </si>
-  <si>
-    <t>RESPONSE_116</t>
-  </si>
-  <si>
-    <t>RESPONSE_117</t>
-  </si>
-  <si>
-    <t>RESPONSE_118</t>
-  </si>
-  <si>
-    <t>RESPONSE_119</t>
-  </si>
-  <si>
-    <t>RESPONSE_120</t>
-  </si>
-  <si>
-    <t>RESPONSE_121</t>
-  </si>
-  <si>
-    <t>RESPONSE_122</t>
-  </si>
-  <si>
-    <t>RESPONSE_123</t>
-  </si>
-  <si>
-    <t>RESPONSE_124</t>
-  </si>
-  <si>
-    <t>RESPONSE_125</t>
-  </si>
-  <si>
-    <t>RESPONSE_126</t>
-  </si>
-  <si>
-    <t>RESPONSE_127</t>
-  </si>
-  <si>
-    <t>RESPONSE_128</t>
-  </si>
-  <si>
-    <t>RESPONSE_129</t>
-  </si>
-  <si>
-    <t>RESPONSE_130</t>
-  </si>
-  <si>
-    <t>RESPONSE_131</t>
-  </si>
-  <si>
-    <t>RESPONSE_132</t>
-  </si>
-  <si>
-    <t>RESPONSE_133</t>
-  </si>
-  <si>
-    <t>RESPONSE_134</t>
-  </si>
-  <si>
-    <t>RESPONSE_135</t>
-  </si>
-  <si>
-    <t>RESPONSE_136</t>
-  </si>
-  <si>
-    <t>RESPONSE_137</t>
-  </si>
-  <si>
-    <t>RESPONSE_138</t>
-  </si>
-  <si>
-    <t>RESPONSE_139</t>
-  </si>
-  <si>
-    <t>RESPONSE_140</t>
-  </si>
-  <si>
-    <t>RESPONSE_141</t>
-  </si>
-  <si>
-    <t>RESPONSE_142</t>
-  </si>
-  <si>
-    <t>RESPONSE_143</t>
-  </si>
-  <si>
-    <t>RESPONSE_144</t>
-  </si>
-  <si>
-    <t>RESPONSE_145</t>
-  </si>
-  <si>
-    <t>RESPONSE_146</t>
-  </si>
-  <si>
-    <t>RESPONSE_147</t>
-  </si>
-  <si>
-    <t>RESPONSE_148</t>
-  </si>
-  <si>
-    <t>RESPONSE_149</t>
-  </si>
-  <si>
-    <t>RESPONSE_150</t>
-  </si>
-  <si>
-    <t>RESPONSE_151</t>
-  </si>
-  <si>
-    <t>RESPONSE_152</t>
-  </si>
-  <si>
-    <t>RESPONSE_153</t>
-  </si>
-  <si>
-    <t>RESPONSE_154</t>
-  </si>
-  <si>
-    <t>RESPONSE_155</t>
-  </si>
-  <si>
-    <t>RESPONSE_156</t>
-  </si>
-  <si>
-    <t>RESPONSE_157</t>
-  </si>
-  <si>
-    <t>RESPONSE_158</t>
-  </si>
-  <si>
-    <t>RESPONSE_159</t>
-  </si>
-  <si>
-    <t>RESPONSE_160</t>
-  </si>
-  <si>
-    <t>RESPONSE_161</t>
-  </si>
-  <si>
-    <t>RESPONSE_162</t>
-  </si>
-  <si>
-    <t>RESPONSE_163</t>
-  </si>
-  <si>
-    <t>RESPONSE_164</t>
-  </si>
-  <si>
-    <t>RESPONSE_165</t>
-  </si>
-  <si>
-    <t>RESPONSE_166</t>
-  </si>
-  <si>
-    <t>RESPONSE_167</t>
-  </si>
-  <si>
-    <t>RESPONSE_168</t>
-  </si>
-  <si>
-    <t>RESPONSE_169</t>
-  </si>
-  <si>
-    <t>RESPONSE_170</t>
-  </si>
-  <si>
-    <t>RESPONSE_171</t>
-  </si>
-  <si>
-    <t>RESPONSE_172</t>
-  </si>
-  <si>
-    <t>RESPONSE_173</t>
-  </si>
-  <si>
-    <t>RESPONSE_174</t>
-  </si>
-  <si>
-    <t>RESPONSE_175</t>
-  </si>
-  <si>
-    <t>RESPONSE_176</t>
-  </si>
-  <si>
-    <t>RESPONSE_177</t>
-  </si>
-  <si>
-    <t>RESPONSE_178</t>
-  </si>
-  <si>
-    <t>RESPONSE_179</t>
-  </si>
-  <si>
-    <t>RESPONSE_180</t>
-  </si>
-  <si>
-    <t>RESPONSE_181</t>
-  </si>
-  <si>
-    <t>RESPONSE_182</t>
-  </si>
-  <si>
-    <t>RESPONSE_183</t>
-  </si>
-  <si>
-    <t>RESPONSE_184</t>
-  </si>
-  <si>
-    <t>RESPONSE_185</t>
-  </si>
-  <si>
-    <t>RESPONSE_186</t>
-  </si>
-  <si>
-    <t>RESPONSE_187</t>
-  </si>
-  <si>
-    <t>RESPONSE_188</t>
-  </si>
-  <si>
-    <t>RESPONSE_189</t>
-  </si>
-  <si>
-    <t>RESPONSE_190</t>
-  </si>
-  <si>
-    <t>RESPONSE_191</t>
-  </si>
-  <si>
-    <t>RESPONSE_192</t>
-  </si>
-  <si>
-    <t>RESPONSE_193</t>
-  </si>
-  <si>
-    <t>RESPONSE_194</t>
-  </si>
-  <si>
-    <t>RESPONSE_195</t>
-  </si>
-  <si>
-    <t>RESPONSE_196</t>
-  </si>
-  <si>
-    <t>RESPONSE_197</t>
-  </si>
-  <si>
-    <t>RESPONSE_198</t>
-  </si>
-  <si>
-    <t>RESPONSE_199</t>
-  </si>
-  <si>
-    <t>RESPONSE_200</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -986,26 +433,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>spkitemid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sc1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale_trim</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>scale_trim_round</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RESPONSE_1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -1020,9 +479,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RESPONSE_2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -1037,9 +498,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RESPONSE_3</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -1054,9 +517,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RESPONSE_4</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -1071,9 +536,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RESPONSE_5</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -1088,9 +555,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RESPONSE_6</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -1105,9 +574,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RESPONSE_7</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -1122,9 +593,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RESPONSE_8</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -1139,9 +612,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RESPONSE_9</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -1156,9 +631,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RESPONSE_10</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
@@ -1173,9 +650,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RESPONSE_11</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -1190,9 +669,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RESPONSE_12</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -1207,9 +688,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RESPONSE_13</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -1224,9 +707,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RESPONSE_14</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -1241,9 +726,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RESPONSE_15</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -1258,9 +745,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RESPONSE_16</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -1275,9 +764,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RESPONSE_17</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>4</v>
@@ -1292,9 +783,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RESPONSE_18</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -1309,9 +802,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RESPONSE_19</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -1326,9 +821,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RESPONSE_20</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -1343,9 +840,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RESPONSE_21</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -1360,26 +859,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RESPONSE_22</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>4.395153935076147</v>
+        <v>4.395153935076146</v>
       </c>
       <c r="D23" t="n">
-        <v>4.395153935076147</v>
+        <v>4.395153935076146</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RESPONSE_23</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -1394,9 +897,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RESPONSE_24</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -1411,9 +916,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RESPONSE_25</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>4</v>
@@ -1428,9 +935,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RESPONSE_26</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>4</v>
@@ -1445,9 +954,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>31</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RESPONSE_27</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>4</v>
@@ -1462,9 +973,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>32</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RESPONSE_28</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -1479,9 +992,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>33</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RESPONSE_29</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -1496,9 +1011,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>34</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RESPONSE_30</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -1513,9 +1030,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>35</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RESPONSE_31</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>3</v>
@@ -1530,9 +1049,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>36</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RESPONSE_32</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>3</v>
@@ -1547,9 +1068,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>37</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RESPONSE_33</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1564,9 +1087,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>38</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RESPONSE_34</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -1581,9 +1106,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>39</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RESPONSE_35</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>4</v>
@@ -1598,9 +1125,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>40</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RESPONSE_36</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -1615,9 +1144,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>41</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RESPONSE_37</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -1632,9 +1163,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>42</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RESPONSE_38</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>5</v>
@@ -1649,9 +1182,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>43</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RESPONSE_39</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>2</v>
@@ -1666,9 +1201,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>44</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RESPONSE_40</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -1683,9 +1220,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>45</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>RESPONSE_41</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>4</v>
@@ -1700,9 +1239,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>46</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RESPONSE_42</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>4</v>
@@ -1717,9 +1258,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>47</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RESPONSE_43</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>4</v>
@@ -1734,9 +1277,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>48</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RESPONSE_44</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>3</v>
@@ -1751,9 +1296,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>49</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RESPONSE_45</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>2</v>
@@ -1768,9 +1315,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>50</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RESPONSE_46</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>2</v>
@@ -1785,9 +1334,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>51</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RESPONSE_47</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>4</v>
@@ -1802,9 +1353,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>52</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RESPONSE_48</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -1819,9 +1372,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>53</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RESPONSE_49</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>5</v>
@@ -1836,9 +1391,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>54</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RESPONSE_50</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -1853,9 +1410,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>55</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RESPONSE_51</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>4</v>
@@ -1870,9 +1429,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>56</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RESPONSE_52</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>5</v>
@@ -1887,9 +1448,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>57</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RESPONSE_53</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>4</v>
@@ -1904,9 +1467,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>58</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RESPONSE_54</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -1921,9 +1486,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>59</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>RESPONSE_55</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -1938,9 +1505,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>60</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RESPONSE_56</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>4</v>
@@ -1955,9 +1524,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>61</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RESPONSE_57</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>4</v>
@@ -1972,9 +1543,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>62</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RESPONSE_58</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -1989,9 +1562,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>63</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RESPONSE_59</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>2</v>
@@ -2006,9 +1581,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>64</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RESPONSE_60</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>4</v>
@@ -2023,9 +1600,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>65</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RESPONSE_61</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>4</v>
@@ -2040,9 +1619,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>66</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RESPONSE_62</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>5</v>
@@ -2057,9 +1638,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>67</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RESPONSE_63</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -2074,9 +1657,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>68</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RESPONSE_64</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>3</v>
@@ -2091,9 +1676,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>69</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RESPONSE_65</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>4</v>
@@ -2108,9 +1695,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>70</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RESPONSE_66</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>4</v>
@@ -2125,9 +1714,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>71</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RESPONSE_67</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>4</v>
@@ -2142,9 +1733,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>72</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RESPONSE_68</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>4</v>
@@ -2159,9 +1752,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>73</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RESPONSE_69</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -2176,9 +1771,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>74</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RESPONSE_70</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -2193,9 +1790,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>75</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>RESPONSE_71</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>3</v>
@@ -2210,9 +1809,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>76</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RESPONSE_72</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>3</v>
@@ -2227,9 +1828,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>77</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RESPONSE_73</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2244,9 +1847,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>78</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RESPONSE_74</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>4</v>
@@ -2261,9 +1866,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>79</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RESPONSE_75</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>4</v>
@@ -2278,9 +1885,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>80</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RESPONSE_76</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>3</v>
@@ -2295,9 +1904,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>81</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RESPONSE_77</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>4</v>
@@ -2312,9 +1923,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>82</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RESPONSE_78</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>5</v>
@@ -2329,9 +1942,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>83</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RESPONSE_79</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>2</v>
@@ -2346,9 +1961,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>84</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RESPONSE_80</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>4</v>
@@ -2363,9 +1980,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>85</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RESPONSE_81</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>4</v>
@@ -2380,9 +1999,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>86</v>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RESPONSE_82</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>4</v>
@@ -2397,9 +2018,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>87</v>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RESPONSE_83</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>4</v>
@@ -2414,43 +2037,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>88</v>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RESPONSE_84</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>3.648039256202873</v>
+        <v>3.648039256202874</v>
       </c>
       <c r="D85" t="n">
-        <v>3.648039256202873</v>
+        <v>3.648039256202874</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>89</v>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>RESPONSE_85</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>3.481419931090722</v>
+        <v>3.481419931090721</v>
       </c>
       <c r="D86" t="n">
-        <v>3.481419931090722</v>
+        <v>3.481419931090721</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>90</v>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RESPONSE_86</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -2465,26 +2094,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>91</v>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RESPONSE_87</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>4.03242649284133</v>
+        <v>4.032426492841331</v>
       </c>
       <c r="D88" t="n">
-        <v>4.03242649284133</v>
+        <v>4.032426492841331</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>92</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RESPONSE_88</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>2</v>
@@ -2499,9 +2132,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>93</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RESPONSE_89</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>5</v>
@@ -2516,9 +2151,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>94</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RESPONSE_90</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>3</v>
@@ -2533,9 +2170,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>95</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RESPONSE_91</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>4</v>
@@ -2550,43 +2189,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>96</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>RESPONSE_92</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>4.556835907898977</v>
+        <v>4.556835907898976</v>
       </c>
       <c r="D93" t="n">
-        <v>4.556835907898977</v>
+        <v>4.556835907898976</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>97</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RESPONSE_93</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>5.237174245609362</v>
+        <v>5.237174245609361</v>
       </c>
       <c r="D94" t="n">
-        <v>5.237174245609362</v>
+        <v>5.237174245609361</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>98</v>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RESPONSE_94</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -2601,9 +2246,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>99</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RESPONSE_95</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>3</v>
@@ -2618,9 +2265,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>100</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RESPONSE_96</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>4</v>
@@ -2635,9 +2284,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>101</v>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RESPONSE_97</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>4</v>
@@ -2652,9 +2303,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>102</v>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RESPONSE_98</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>3</v>
@@ -2669,9 +2322,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>103</v>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RESPONSE_99</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>2</v>
@@ -2686,9 +2341,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>104</v>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RESPONSE_100</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -2703,26 +2360,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>105</v>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RESPONSE_101</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>4.455495844556213</v>
+        <v>4.455495844556214</v>
       </c>
       <c r="D102" t="n">
-        <v>4.455495844556213</v>
+        <v>4.455495844556214</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>106</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RESPONSE_102</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>5</v>
@@ -2737,9 +2398,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>107</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RESPONSE_103</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>3</v>
@@ -2754,9 +2417,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>108</v>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RESPONSE_104</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>3</v>
@@ -2771,9 +2436,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>109</v>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RESPONSE_105</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>4</v>
@@ -2788,9 +2455,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>110</v>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RESPONSE_106</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -2805,9 +2474,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>111</v>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RESPONSE_107</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>4</v>
@@ -2822,9 +2493,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>112</v>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RESPONSE_108</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>4</v>
@@ -2839,9 +2512,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>113</v>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RESPONSE_109</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>3</v>
@@ -2856,9 +2531,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>114</v>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RESPONSE_110</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>3</v>
@@ -2873,9 +2550,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>115</v>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>RESPONSE_111</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>3</v>
@@ -2890,26 +2569,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>116</v>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>RESPONSE_112</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3.030543027881573</v>
+        <v>3.030543027881574</v>
       </c>
       <c r="D113" t="n">
-        <v>3.030543027881573</v>
+        <v>3.030543027881574</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>117</v>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>RESPONSE_113</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2924,26 +2607,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>118</v>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>RESPONSE_114</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>4.124622367758032</v>
+        <v>4.124622367758031</v>
       </c>
       <c r="D115" t="n">
-        <v>4.124622367758032</v>
+        <v>4.124622367758031</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>119</v>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RESPONSE_115</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>4</v>
@@ -2958,9 +2645,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>120</v>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>RESPONSE_116</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>3</v>
@@ -2975,9 +2664,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>121</v>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>RESPONSE_117</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>4</v>
@@ -2992,9 +2683,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>122</v>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>RESPONSE_118</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>5</v>
@@ -3009,9 +2702,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>123</v>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>RESPONSE_119</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>2</v>
@@ -3026,9 +2721,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>124</v>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>RESPONSE_120</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>4</v>
@@ -3043,9 +2740,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>125</v>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RESPONSE_121</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>4</v>
@@ -3060,26 +2759,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>126</v>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RESPONSE_122</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>4.562068311291259</v>
+        <v>4.56206831129126</v>
       </c>
       <c r="D123" t="n">
-        <v>4.562068311291259</v>
+        <v>4.56206831129126</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>127</v>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RESPONSE_123</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>4</v>
@@ -3094,9 +2797,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>128</v>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RESPONSE_124</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>3</v>
@@ -3111,9 +2816,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>129</v>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RESPONSE_125</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>2</v>
@@ -3128,9 +2835,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>130</v>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>RESPONSE_126</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>2</v>
@@ -3145,9 +2854,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>131</v>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RESPONSE_127</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>4</v>
@@ -3162,9 +2873,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>132</v>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RESPONSE_128</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>2</v>
@@ -3179,9 +2892,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>133</v>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RESPONSE_129</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>5</v>
@@ -3196,9 +2911,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>134</v>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RESPONSE_130</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>3</v>
@@ -3213,9 +2930,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>135</v>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RESPONSE_131</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>4</v>
@@ -3230,9 +2949,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>136</v>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>RESPONSE_132</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>5</v>
@@ -3247,26 +2968,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>137</v>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>RESPONSE_133</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>5.084000704485518</v>
+        <v>5.084000704485519</v>
       </c>
       <c r="D134" t="n">
-        <v>5.084000704485518</v>
+        <v>5.084000704485519</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>138</v>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RESPONSE_134</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>4</v>
@@ -3281,9 +3006,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>139</v>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RESPONSE_135</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>3</v>
@@ -3298,26 +3025,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>140</v>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RESPONSE_136</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>4</v>
       </c>
       <c r="C137" t="n">
-        <v>4.330862553588763</v>
+        <v>4.330862553588764</v>
       </c>
       <c r="D137" t="n">
-        <v>4.330862553588763</v>
+        <v>4.330862553588764</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>141</v>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RESPONSE_137</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>4</v>
@@ -3332,9 +3063,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>142</v>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RESPONSE_138</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>3</v>
@@ -3349,9 +3082,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>143</v>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>RESPONSE_139</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>2</v>
@@ -3366,26 +3101,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>144</v>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RESPONSE_140</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>4.398116372883401</v>
+        <v>4.3981163728834</v>
       </c>
       <c r="D141" t="n">
-        <v>4.398116372883401</v>
+        <v>4.3981163728834</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>145</v>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RESPONSE_141</t>
+        </is>
       </c>
       <c r="B142" t="n">
         <v>4</v>
@@ -3400,9 +3139,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>146</v>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>RESPONSE_142</t>
+        </is>
       </c>
       <c r="B143" t="n">
         <v>5</v>
@@ -3417,9 +3158,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>147</v>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>RESPONSE_143</t>
+        </is>
       </c>
       <c r="B144" t="n">
         <v>3</v>
@@ -3434,9 +3177,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>148</v>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>RESPONSE_144</t>
+        </is>
       </c>
       <c r="B145" t="n">
         <v>3</v>
@@ -3451,9 +3196,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>149</v>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>RESPONSE_145</t>
+        </is>
       </c>
       <c r="B146" t="n">
         <v>4</v>
@@ -3468,26 +3215,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>150</v>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>RESPONSE_146</t>
+        </is>
       </c>
       <c r="B147" t="n">
         <v>4</v>
       </c>
       <c r="C147" t="n">
-        <v>4.443792239832597</v>
+        <v>4.443792239832596</v>
       </c>
       <c r="D147" t="n">
-        <v>4.443792239832597</v>
+        <v>4.443792239832596</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>151</v>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>RESPONSE_147</t>
+        </is>
       </c>
       <c r="B148" t="n">
         <v>4</v>
@@ -3502,9 +3253,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>152</v>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>RESPONSE_148</t>
+        </is>
       </c>
       <c r="B149" t="n">
         <v>4</v>
@@ -3519,9 +3272,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>153</v>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>RESPONSE_149</t>
+        </is>
       </c>
       <c r="B150" t="n">
         <v>3</v>
@@ -3536,9 +3291,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>154</v>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>RESPONSE_150</t>
+        </is>
       </c>
       <c r="B151" t="n">
         <v>3</v>
@@ -3553,9 +3310,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>155</v>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>RESPONSE_151</t>
+        </is>
       </c>
       <c r="B152" t="n">
         <v>3</v>
@@ -3570,9 +3329,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>156</v>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>RESPONSE_152</t>
+        </is>
       </c>
       <c r="B153" t="n">
         <v>3</v>
@@ -3587,9 +3348,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>157</v>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>RESPONSE_153</t>
+        </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -3604,9 +3367,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>158</v>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>RESPONSE_154</t>
+        </is>
       </c>
       <c r="B155" t="n">
         <v>4</v>
@@ -3621,9 +3386,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>159</v>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>RESPONSE_155</t>
+        </is>
       </c>
       <c r="B156" t="n">
         <v>4</v>
@@ -3638,9 +3405,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>160</v>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>RESPONSE_156</t>
+        </is>
       </c>
       <c r="B157" t="n">
         <v>3</v>
@@ -3655,9 +3424,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>161</v>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>RESPONSE_157</t>
+        </is>
       </c>
       <c r="B158" t="n">
         <v>4</v>
@@ -3672,26 +3443,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>162</v>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>RESPONSE_158</t>
+        </is>
       </c>
       <c r="B159" t="n">
         <v>5</v>
       </c>
       <c r="C159" t="n">
-        <v>4.901740499119373</v>
+        <v>4.901740499119372</v>
       </c>
       <c r="D159" t="n">
-        <v>4.901740499119373</v>
+        <v>4.901740499119372</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>163</v>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>RESPONSE_159</t>
+        </is>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -3706,9 +3481,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>164</v>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>RESPONSE_160</t>
+        </is>
       </c>
       <c r="B161" t="n">
         <v>4</v>
@@ -3723,26 +3500,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>165</v>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>RESPONSE_161</t>
+        </is>
       </c>
       <c r="B162" t="n">
         <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>4.173625218346569</v>
+        <v>4.173625218346568</v>
       </c>
       <c r="D162" t="n">
-        <v>4.173625218346569</v>
+        <v>4.173625218346568</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>166</v>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>RESPONSE_162</t>
+        </is>
       </c>
       <c r="B163" t="n">
         <v>4</v>
@@ -3757,9 +3538,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>167</v>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>RESPONSE_163</t>
+        </is>
       </c>
       <c r="B164" t="n">
         <v>4</v>
@@ -3774,9 +3557,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>168</v>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>RESPONSE_164</t>
+        </is>
       </c>
       <c r="B165" t="n">
         <v>3</v>
@@ -3791,9 +3576,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>169</v>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>RESPONSE_165</t>
+        </is>
       </c>
       <c r="B166" t="n">
         <v>2</v>
@@ -3808,9 +3595,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>170</v>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>RESPONSE_166</t>
+        </is>
       </c>
       <c r="B167" t="n">
         <v>2</v>
@@ -3825,9 +3614,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>171</v>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>RESPONSE_167</t>
+        </is>
       </c>
       <c r="B168" t="n">
         <v>4</v>
@@ -3842,9 +3633,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>172</v>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>RESPONSE_168</t>
+        </is>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -3859,9 +3652,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>173</v>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>RESPONSE_169</t>
+        </is>
       </c>
       <c r="B170" t="n">
         <v>5</v>
@@ -3876,9 +3671,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>174</v>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>RESPONSE_170</t>
+        </is>
       </c>
       <c r="B171" t="n">
         <v>3</v>
@@ -3893,9 +3690,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>175</v>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>RESPONSE_171</t>
+        </is>
       </c>
       <c r="B172" t="n">
         <v>4</v>
@@ -3910,9 +3709,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>176</v>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>RESPONSE_172</t>
+        </is>
       </c>
       <c r="B173" t="n">
         <v>5</v>
@@ -3927,26 +3728,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>177</v>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>RESPONSE_173</t>
+        </is>
       </c>
       <c r="B174" t="n">
         <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>5.189589727583106</v>
+        <v>5.189589727583105</v>
       </c>
       <c r="D174" t="n">
-        <v>5.189589727583106</v>
+        <v>5.189589727583105</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>178</v>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>RESPONSE_174</t>
+        </is>
       </c>
       <c r="B175" t="n">
         <v>4</v>
@@ -3961,9 +3766,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>179</v>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>RESPONSE_175</t>
+        </is>
       </c>
       <c r="B176" t="n">
         <v>3</v>
@@ -3978,26 +3785,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>180</v>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>RESPONSE_176</t>
+        </is>
       </c>
       <c r="B177" t="n">
         <v>4</v>
       </c>
       <c r="C177" t="n">
-        <v>4.140469536010326</v>
+        <v>4.140469536010327</v>
       </c>
       <c r="D177" t="n">
-        <v>4.140469536010326</v>
+        <v>4.140469536010327</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>181</v>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>RESPONSE_177</t>
+        </is>
       </c>
       <c r="B178" t="n">
         <v>4</v>
@@ -4012,9 +3823,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>182</v>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>RESPONSE_178</t>
+        </is>
       </c>
       <c r="B179" t="n">
         <v>3</v>
@@ -4029,9 +3842,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>183</v>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>RESPONSE_179</t>
+        </is>
       </c>
       <c r="B180" t="n">
         <v>2</v>
@@ -4046,9 +3861,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>184</v>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>RESPONSE_180</t>
+        </is>
       </c>
       <c r="B181" t="n">
         <v>4</v>
@@ -4063,9 +3880,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>185</v>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>RESPONSE_181</t>
+        </is>
       </c>
       <c r="B182" t="n">
         <v>4</v>
@@ -4080,9 +3899,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>186</v>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>RESPONSE_182</t>
+        </is>
       </c>
       <c r="B183" t="n">
         <v>5</v>
@@ -4097,9 +3918,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>187</v>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>RESPONSE_183</t>
+        </is>
       </c>
       <c r="B184" t="n">
         <v>3</v>
@@ -4114,9 +3937,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>188</v>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>RESPONSE_184</t>
+        </is>
       </c>
       <c r="B185" t="n">
         <v>3</v>
@@ -4131,9 +3956,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>189</v>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RESPONSE_185</t>
+        </is>
       </c>
       <c r="B186" t="n">
         <v>4</v>
@@ -4148,26 +3975,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>190</v>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>RESPONSE_186</t>
+        </is>
       </c>
       <c r="B187" t="n">
         <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>4.463769077031311</v>
+        <v>4.463769077031312</v>
       </c>
       <c r="D187" t="n">
-        <v>4.463769077031311</v>
+        <v>4.463769077031312</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>191</v>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RESPONSE_187</t>
+        </is>
       </c>
       <c r="B188" t="n">
         <v>4</v>
@@ -4182,9 +4013,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>192</v>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>RESPONSE_188</t>
+        </is>
       </c>
       <c r="B189" t="n">
         <v>4</v>
@@ -4199,9 +4032,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>193</v>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>RESPONSE_189</t>
+        </is>
       </c>
       <c r="B190" t="n">
         <v>3</v>
@@ -4216,9 +4051,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>194</v>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>RESPONSE_190</t>
+        </is>
       </c>
       <c r="B191" t="n">
         <v>3</v>
@@ -4233,9 +4070,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>195</v>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>RESPONSE_191</t>
+        </is>
       </c>
       <c r="B192" t="n">
         <v>3</v>
@@ -4250,9 +4089,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>196</v>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>RESPONSE_192</t>
+        </is>
       </c>
       <c r="B193" t="n">
         <v>3</v>
@@ -4267,9 +4108,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>197</v>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>RESPONSE_193</t>
+        </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -4284,26 +4127,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>198</v>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>RESPONSE_194</t>
+        </is>
       </c>
       <c r="B195" t="n">
         <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>4.275248158145948</v>
+        <v>4.275248158145949</v>
       </c>
       <c r="D195" t="n">
-        <v>4.275248158145948</v>
+        <v>4.275248158145949</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>199</v>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>RESPONSE_195</t>
+        </is>
       </c>
       <c r="B196" t="n">
         <v>4</v>
@@ -4318,9 +4165,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>200</v>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>RESPONSE_196</t>
+        </is>
       </c>
       <c r="B197" t="n">
         <v>3</v>
@@ -4335,9 +4184,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>201</v>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>RESPONSE_197</t>
+        </is>
       </c>
       <c r="B198" t="n">
         <v>4</v>
@@ -4352,9 +4203,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>202</v>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>RESPONSE_198</t>
+        </is>
       </c>
       <c r="B199" t="n">
         <v>5</v>
@@ -4369,9 +4222,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>203</v>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>RESPONSE_199</t>
+        </is>
       </c>
       <c r="B200" t="n">
         <v>2</v>
@@ -4386,9 +4241,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>204</v>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>RESPONSE_200</t>
+        </is>
       </c>
       <c r="B201" t="n">
         <v>4</v>
@@ -4404,6 +4261,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_pred_processed.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_pred_processed.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,626 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+  <si>
+    <t>spkitemid</t>
+  </si>
+  <si>
+    <t>sc1</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scale_trim</t>
+  </si>
+  <si>
+    <t>scale_trim_round</t>
+  </si>
+  <si>
+    <t>RESPONSE_1</t>
+  </si>
+  <si>
+    <t>RESPONSE_2</t>
+  </si>
+  <si>
+    <t>RESPONSE_3</t>
+  </si>
+  <si>
+    <t>RESPONSE_4</t>
+  </si>
+  <si>
+    <t>RESPONSE_5</t>
+  </si>
+  <si>
+    <t>RESPONSE_6</t>
+  </si>
+  <si>
+    <t>RESPONSE_7</t>
+  </si>
+  <si>
+    <t>RESPONSE_8</t>
+  </si>
+  <si>
+    <t>RESPONSE_9</t>
+  </si>
+  <si>
+    <t>RESPONSE_10</t>
+  </si>
+  <si>
+    <t>RESPONSE_11</t>
+  </si>
+  <si>
+    <t>RESPONSE_12</t>
+  </si>
+  <si>
+    <t>RESPONSE_13</t>
+  </si>
+  <si>
+    <t>RESPONSE_14</t>
+  </si>
+  <si>
+    <t>RESPONSE_15</t>
+  </si>
+  <si>
+    <t>RESPONSE_16</t>
+  </si>
+  <si>
+    <t>RESPONSE_17</t>
+  </si>
+  <si>
+    <t>RESPONSE_18</t>
+  </si>
+  <si>
+    <t>RESPONSE_19</t>
+  </si>
+  <si>
+    <t>RESPONSE_20</t>
+  </si>
+  <si>
+    <t>RESPONSE_21</t>
+  </si>
+  <si>
+    <t>RESPONSE_22</t>
+  </si>
+  <si>
+    <t>RESPONSE_23</t>
+  </si>
+  <si>
+    <t>RESPONSE_24</t>
+  </si>
+  <si>
+    <t>RESPONSE_25</t>
+  </si>
+  <si>
+    <t>RESPONSE_26</t>
+  </si>
+  <si>
+    <t>RESPONSE_27</t>
+  </si>
+  <si>
+    <t>RESPONSE_28</t>
+  </si>
+  <si>
+    <t>RESPONSE_29</t>
+  </si>
+  <si>
+    <t>RESPONSE_30</t>
+  </si>
+  <si>
+    <t>RESPONSE_31</t>
+  </si>
+  <si>
+    <t>RESPONSE_32</t>
+  </si>
+  <si>
+    <t>RESPONSE_33</t>
+  </si>
+  <si>
+    <t>RESPONSE_34</t>
+  </si>
+  <si>
+    <t>RESPONSE_35</t>
+  </si>
+  <si>
+    <t>RESPONSE_36</t>
+  </si>
+  <si>
+    <t>RESPONSE_37</t>
+  </si>
+  <si>
+    <t>RESPONSE_38</t>
+  </si>
+  <si>
+    <t>RESPONSE_39</t>
+  </si>
+  <si>
+    <t>RESPONSE_40</t>
+  </si>
+  <si>
+    <t>RESPONSE_41</t>
+  </si>
+  <si>
+    <t>RESPONSE_42</t>
+  </si>
+  <si>
+    <t>RESPONSE_43</t>
+  </si>
+  <si>
+    <t>RESPONSE_44</t>
+  </si>
+  <si>
+    <t>RESPONSE_45</t>
+  </si>
+  <si>
+    <t>RESPONSE_46</t>
+  </si>
+  <si>
+    <t>RESPONSE_47</t>
+  </si>
+  <si>
+    <t>RESPONSE_48</t>
+  </si>
+  <si>
+    <t>RESPONSE_49</t>
+  </si>
+  <si>
+    <t>RESPONSE_50</t>
+  </si>
+  <si>
+    <t>RESPONSE_51</t>
+  </si>
+  <si>
+    <t>RESPONSE_52</t>
+  </si>
+  <si>
+    <t>RESPONSE_53</t>
+  </si>
+  <si>
+    <t>RESPONSE_54</t>
+  </si>
+  <si>
+    <t>RESPONSE_55</t>
+  </si>
+  <si>
+    <t>RESPONSE_56</t>
+  </si>
+  <si>
+    <t>RESPONSE_57</t>
+  </si>
+  <si>
+    <t>RESPONSE_58</t>
+  </si>
+  <si>
+    <t>RESPONSE_59</t>
+  </si>
+  <si>
+    <t>RESPONSE_60</t>
+  </si>
+  <si>
+    <t>RESPONSE_61</t>
+  </si>
+  <si>
+    <t>RESPONSE_62</t>
+  </si>
+  <si>
+    <t>RESPONSE_63</t>
+  </si>
+  <si>
+    <t>RESPONSE_64</t>
+  </si>
+  <si>
+    <t>RESPONSE_65</t>
+  </si>
+  <si>
+    <t>RESPONSE_66</t>
+  </si>
+  <si>
+    <t>RESPONSE_67</t>
+  </si>
+  <si>
+    <t>RESPONSE_68</t>
+  </si>
+  <si>
+    <t>RESPONSE_69</t>
+  </si>
+  <si>
+    <t>RESPONSE_70</t>
+  </si>
+  <si>
+    <t>RESPONSE_71</t>
+  </si>
+  <si>
+    <t>RESPONSE_72</t>
+  </si>
+  <si>
+    <t>RESPONSE_73</t>
+  </si>
+  <si>
+    <t>RESPONSE_74</t>
+  </si>
+  <si>
+    <t>RESPONSE_75</t>
+  </si>
+  <si>
+    <t>RESPONSE_76</t>
+  </si>
+  <si>
+    <t>RESPONSE_77</t>
+  </si>
+  <si>
+    <t>RESPONSE_78</t>
+  </si>
+  <si>
+    <t>RESPONSE_79</t>
+  </si>
+  <si>
+    <t>RESPONSE_80</t>
+  </si>
+  <si>
+    <t>RESPONSE_81</t>
+  </si>
+  <si>
+    <t>RESPONSE_82</t>
+  </si>
+  <si>
+    <t>RESPONSE_83</t>
+  </si>
+  <si>
+    <t>RESPONSE_84</t>
+  </si>
+  <si>
+    <t>RESPONSE_85</t>
+  </si>
+  <si>
+    <t>RESPONSE_86</t>
+  </si>
+  <si>
+    <t>RESPONSE_87</t>
+  </si>
+  <si>
+    <t>RESPONSE_88</t>
+  </si>
+  <si>
+    <t>RESPONSE_89</t>
+  </si>
+  <si>
+    <t>RESPONSE_90</t>
+  </si>
+  <si>
+    <t>RESPONSE_91</t>
+  </si>
+  <si>
+    <t>RESPONSE_92</t>
+  </si>
+  <si>
+    <t>RESPONSE_93</t>
+  </si>
+  <si>
+    <t>RESPONSE_94</t>
+  </si>
+  <si>
+    <t>RESPONSE_95</t>
+  </si>
+  <si>
+    <t>RESPONSE_96</t>
+  </si>
+  <si>
+    <t>RESPONSE_97</t>
+  </si>
+  <si>
+    <t>RESPONSE_98</t>
+  </si>
+  <si>
+    <t>RESPONSE_99</t>
+  </si>
+  <si>
+    <t>RESPONSE_100</t>
+  </si>
+  <si>
+    <t>RESPONSE_101</t>
+  </si>
+  <si>
+    <t>RESPONSE_102</t>
+  </si>
+  <si>
+    <t>RESPONSE_103</t>
+  </si>
+  <si>
+    <t>RESPONSE_104</t>
+  </si>
+  <si>
+    <t>RESPONSE_105</t>
+  </si>
+  <si>
+    <t>RESPONSE_106</t>
+  </si>
+  <si>
+    <t>RESPONSE_107</t>
+  </si>
+  <si>
+    <t>RESPONSE_108</t>
+  </si>
+  <si>
+    <t>RESPONSE_109</t>
+  </si>
+  <si>
+    <t>RESPONSE_110</t>
+  </si>
+  <si>
+    <t>RESPONSE_111</t>
+  </si>
+  <si>
+    <t>RESPONSE_112</t>
+  </si>
+  <si>
+    <t>RESPONSE_113</t>
+  </si>
+  <si>
+    <t>RESPONSE_114</t>
+  </si>
+  <si>
+    <t>RESPONSE_115</t>
+  </si>
+  <si>
+    <t>RESPONSE_116</t>
+  </si>
+  <si>
+    <t>RESPONSE_117</t>
+  </si>
+  <si>
+    <t>RESPONSE_118</t>
+  </si>
+  <si>
+    <t>RESPONSE_119</t>
+  </si>
+  <si>
+    <t>RESPONSE_120</t>
+  </si>
+  <si>
+    <t>RESPONSE_121</t>
+  </si>
+  <si>
+    <t>RESPONSE_122</t>
+  </si>
+  <si>
+    <t>RESPONSE_123</t>
+  </si>
+  <si>
+    <t>RESPONSE_124</t>
+  </si>
+  <si>
+    <t>RESPONSE_125</t>
+  </si>
+  <si>
+    <t>RESPONSE_126</t>
+  </si>
+  <si>
+    <t>RESPONSE_127</t>
+  </si>
+  <si>
+    <t>RESPONSE_128</t>
+  </si>
+  <si>
+    <t>RESPONSE_129</t>
+  </si>
+  <si>
+    <t>RESPONSE_130</t>
+  </si>
+  <si>
+    <t>RESPONSE_131</t>
+  </si>
+  <si>
+    <t>RESPONSE_132</t>
+  </si>
+  <si>
+    <t>RESPONSE_133</t>
+  </si>
+  <si>
+    <t>RESPONSE_134</t>
+  </si>
+  <si>
+    <t>RESPONSE_135</t>
+  </si>
+  <si>
+    <t>RESPONSE_136</t>
+  </si>
+  <si>
+    <t>RESPONSE_137</t>
+  </si>
+  <si>
+    <t>RESPONSE_138</t>
+  </si>
+  <si>
+    <t>RESPONSE_139</t>
+  </si>
+  <si>
+    <t>RESPONSE_140</t>
+  </si>
+  <si>
+    <t>RESPONSE_141</t>
+  </si>
+  <si>
+    <t>RESPONSE_142</t>
+  </si>
+  <si>
+    <t>RESPONSE_143</t>
+  </si>
+  <si>
+    <t>RESPONSE_144</t>
+  </si>
+  <si>
+    <t>RESPONSE_145</t>
+  </si>
+  <si>
+    <t>RESPONSE_146</t>
+  </si>
+  <si>
+    <t>RESPONSE_147</t>
+  </si>
+  <si>
+    <t>RESPONSE_148</t>
+  </si>
+  <si>
+    <t>RESPONSE_149</t>
+  </si>
+  <si>
+    <t>RESPONSE_150</t>
+  </si>
+  <si>
+    <t>RESPONSE_151</t>
+  </si>
+  <si>
+    <t>RESPONSE_152</t>
+  </si>
+  <si>
+    <t>RESPONSE_153</t>
+  </si>
+  <si>
+    <t>RESPONSE_154</t>
+  </si>
+  <si>
+    <t>RESPONSE_155</t>
+  </si>
+  <si>
+    <t>RESPONSE_156</t>
+  </si>
+  <si>
+    <t>RESPONSE_157</t>
+  </si>
+  <si>
+    <t>RESPONSE_158</t>
+  </si>
+  <si>
+    <t>RESPONSE_159</t>
+  </si>
+  <si>
+    <t>RESPONSE_160</t>
+  </si>
+  <si>
+    <t>RESPONSE_161</t>
+  </si>
+  <si>
+    <t>RESPONSE_162</t>
+  </si>
+  <si>
+    <t>RESPONSE_163</t>
+  </si>
+  <si>
+    <t>RESPONSE_164</t>
+  </si>
+  <si>
+    <t>RESPONSE_165</t>
+  </si>
+  <si>
+    <t>RESPONSE_166</t>
+  </si>
+  <si>
+    <t>RESPONSE_167</t>
+  </si>
+  <si>
+    <t>RESPONSE_168</t>
+  </si>
+  <si>
+    <t>RESPONSE_169</t>
+  </si>
+  <si>
+    <t>RESPONSE_170</t>
+  </si>
+  <si>
+    <t>RESPONSE_171</t>
+  </si>
+  <si>
+    <t>RESPONSE_172</t>
+  </si>
+  <si>
+    <t>RESPONSE_173</t>
+  </si>
+  <si>
+    <t>RESPONSE_174</t>
+  </si>
+  <si>
+    <t>RESPONSE_175</t>
+  </si>
+  <si>
+    <t>RESPONSE_176</t>
+  </si>
+  <si>
+    <t>RESPONSE_177</t>
+  </si>
+  <si>
+    <t>RESPONSE_178</t>
+  </si>
+  <si>
+    <t>RESPONSE_179</t>
+  </si>
+  <si>
+    <t>RESPONSE_180</t>
+  </si>
+  <si>
+    <t>RESPONSE_181</t>
+  </si>
+  <si>
+    <t>RESPONSE_182</t>
+  </si>
+  <si>
+    <t>RESPONSE_183</t>
+  </si>
+  <si>
+    <t>RESPONSE_184</t>
+  </si>
+  <si>
+    <t>RESPONSE_185</t>
+  </si>
+  <si>
+    <t>RESPONSE_186</t>
+  </si>
+  <si>
+    <t>RESPONSE_187</t>
+  </si>
+  <si>
+    <t>RESPONSE_188</t>
+  </si>
+  <si>
+    <t>RESPONSE_189</t>
+  </si>
+  <si>
+    <t>RESPONSE_190</t>
+  </si>
+  <si>
+    <t>RESPONSE_191</t>
+  </si>
+  <si>
+    <t>RESPONSE_192</t>
+  </si>
+  <si>
+    <t>RESPONSE_193</t>
+  </si>
+  <si>
+    <t>RESPONSE_194</t>
+  </si>
+  <si>
+    <t>RESPONSE_195</t>
+  </si>
+  <si>
+    <t>RESPONSE_196</t>
+  </si>
+  <si>
+    <t>RESPONSE_197</t>
+  </si>
+  <si>
+    <t>RESPONSE_198</t>
+  </si>
+  <si>
+    <t>RESPONSE_199</t>
+  </si>
+  <si>
+    <t>RESPONSE_200</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +670,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -433,38 +986,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>spkitemid</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>sc1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>scale_trim</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>scale_trim_round</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RESPONSE_1</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -479,11 +1020,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RESPONSE_2</t>
-        </is>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -498,11 +1037,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RESPONSE_3</t>
-        </is>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -517,11 +1054,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RESPONSE_4</t>
-        </is>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -536,11 +1071,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RESPONSE_5</t>
-        </is>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -555,11 +1088,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RESPONSE_6</t>
-        </is>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -574,11 +1105,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RESPONSE_7</t>
-        </is>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -593,11 +1122,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RESPONSE_8</t>
-        </is>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -612,11 +1139,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RESPONSE_9</t>
-        </is>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -631,11 +1156,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RESPONSE_10</t>
-        </is>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
@@ -650,11 +1173,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RESPONSE_11</t>
-        </is>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -669,11 +1190,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RESPONSE_12</t>
-        </is>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -688,11 +1207,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RESPONSE_13</t>
-        </is>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -707,11 +1224,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>RESPONSE_14</t>
-        </is>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -726,11 +1241,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RESPONSE_15</t>
-        </is>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -745,11 +1258,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>RESPONSE_16</t>
-        </is>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -764,11 +1275,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RESPONSE_17</t>
-        </is>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>4</v>
@@ -783,11 +1292,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>RESPONSE_18</t>
-        </is>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
@@ -802,11 +1309,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>RESPONSE_19</t>
-        </is>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -821,11 +1326,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RESPONSE_20</t>
-        </is>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -840,11 +1343,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>RESPONSE_21</t>
-        </is>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -859,30 +1360,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>RESPONSE_22</t>
-        </is>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>4.395153935076146</v>
+        <v>4.395153935076147</v>
       </c>
       <c r="D23" t="n">
-        <v>4.395153935076146</v>
+        <v>4.395153935076147</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>RESPONSE_23</t>
-        </is>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
@@ -897,11 +1394,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>RESPONSE_24</t>
-        </is>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
@@ -916,11 +1411,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>RESPONSE_25</t>
-        </is>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
@@ -935,11 +1428,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>RESPONSE_26</t>
-        </is>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>4</v>
@@ -954,11 +1445,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>RESPONSE_27</t>
-        </is>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>4</v>
@@ -973,11 +1462,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>RESPONSE_28</t>
-        </is>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -992,11 +1479,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>RESPONSE_29</t>
-        </is>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
@@ -1011,11 +1496,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>RESPONSE_30</t>
-        </is>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
@@ -1030,11 +1513,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>RESPONSE_31</t>
-        </is>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
@@ -1049,11 +1530,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>RESPONSE_32</t>
-        </is>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
@@ -1068,11 +1547,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>RESPONSE_33</t>
-        </is>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1087,11 +1564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>RESPONSE_34</t>
-        </is>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -1106,11 +1581,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>RESPONSE_35</t>
-        </is>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
@@ -1125,11 +1598,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>RESPONSE_36</t>
-        </is>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -1144,11 +1615,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>RESPONSE_37</t>
-        </is>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -1163,11 +1632,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>RESPONSE_38</t>
-        </is>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>5</v>
@@ -1182,11 +1649,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>RESPONSE_39</t>
-        </is>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>2</v>
@@ -1201,11 +1666,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>RESPONSE_40</t>
-        </is>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -1220,11 +1683,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>RESPONSE_41</t>
-        </is>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>4</v>
@@ -1239,11 +1700,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>RESPONSE_42</t>
-        </is>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>4</v>
@@ -1258,11 +1717,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>RESPONSE_43</t>
-        </is>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>4</v>
@@ -1277,11 +1734,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>RESPONSE_44</t>
-        </is>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
@@ -1296,11 +1751,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>RESPONSE_45</t>
-        </is>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
       </c>
       <c r="B46" t="n">
         <v>2</v>
@@ -1315,11 +1768,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>RESPONSE_46</t>
-        </is>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
@@ -1334,11 +1785,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>RESPONSE_47</t>
-        </is>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
       </c>
       <c r="B48" t="n">
         <v>4</v>
@@ -1353,11 +1802,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>RESPONSE_48</t>
-        </is>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -1372,11 +1819,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>RESPONSE_49</t>
-        </is>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
@@ -1391,11 +1836,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>RESPONSE_50</t>
-        </is>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -1410,11 +1853,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>RESPONSE_51</t>
-        </is>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
       </c>
       <c r="B52" t="n">
         <v>4</v>
@@ -1429,11 +1870,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>RESPONSE_52</t>
-        </is>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
@@ -1448,11 +1887,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>RESPONSE_53</t>
-        </is>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
       </c>
       <c r="B54" t="n">
         <v>4</v>
@@ -1467,11 +1904,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>RESPONSE_54</t>
-        </is>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
@@ -1486,11 +1921,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>RESPONSE_55</t>
-        </is>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
       </c>
       <c r="B56" t="n">
         <v>3</v>
@@ -1505,11 +1938,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>RESPONSE_56</t>
-        </is>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
       </c>
       <c r="B57" t="n">
         <v>4</v>
@@ -1524,11 +1955,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>RESPONSE_57</t>
-        </is>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
       </c>
       <c r="B58" t="n">
         <v>4</v>
@@ -1543,11 +1972,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>RESPONSE_58</t>
-        </is>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -1562,11 +1989,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>RESPONSE_59</t>
-        </is>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
       </c>
       <c r="B60" t="n">
         <v>2</v>
@@ -1581,11 +2006,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>RESPONSE_60</t>
-        </is>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
       </c>
       <c r="B61" t="n">
         <v>4</v>
@@ -1600,11 +2023,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>RESPONSE_61</t>
-        </is>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>4</v>
@@ -1619,11 +2040,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>RESPONSE_62</t>
-        </is>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
       </c>
       <c r="B63" t="n">
         <v>5</v>
@@ -1638,11 +2057,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>RESPONSE_63</t>
-        </is>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -1657,11 +2074,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>RESPONSE_64</t>
-        </is>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
@@ -1676,11 +2091,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>RESPONSE_65</t>
-        </is>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
       </c>
       <c r="B66" t="n">
         <v>4</v>
@@ -1695,11 +2108,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>RESPONSE_66</t>
-        </is>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
       </c>
       <c r="B67" t="n">
         <v>4</v>
@@ -1714,11 +2125,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>RESPONSE_67</t>
-        </is>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
       </c>
       <c r="B68" t="n">
         <v>4</v>
@@ -1733,11 +2142,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>RESPONSE_68</t>
-        </is>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
@@ -1752,11 +2159,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>RESPONSE_69</t>
-        </is>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -1771,11 +2176,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>RESPONSE_70</t>
-        </is>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -1790,11 +2193,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>RESPONSE_71</t>
-        </is>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
       </c>
       <c r="B72" t="n">
         <v>3</v>
@@ -1809,11 +2210,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>RESPONSE_72</t>
-        </is>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
       </c>
       <c r="B73" t="n">
         <v>3</v>
@@ -1828,11 +2227,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>RESPONSE_73</t>
-        </is>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1847,11 +2244,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>RESPONSE_74</t>
-        </is>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
       </c>
       <c r="B75" t="n">
         <v>4</v>
@@ -1866,11 +2261,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>RESPONSE_75</t>
-        </is>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
       </c>
       <c r="B76" t="n">
         <v>4</v>
@@ -1885,11 +2278,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>RESPONSE_76</t>
-        </is>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
       </c>
       <c r="B77" t="n">
         <v>3</v>
@@ -1904,11 +2295,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>RESPONSE_77</t>
-        </is>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
       </c>
       <c r="B78" t="n">
         <v>4</v>
@@ -1923,11 +2312,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>RESPONSE_78</t>
-        </is>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
       </c>
       <c r="B79" t="n">
         <v>5</v>
@@ -1942,11 +2329,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>RESPONSE_79</t>
-        </is>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
       </c>
       <c r="B80" t="n">
         <v>2</v>
@@ -1961,11 +2346,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>RESPONSE_80</t>
-        </is>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
       </c>
       <c r="B81" t="n">
         <v>4</v>
@@ -1980,11 +2363,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>RESPONSE_81</t>
-        </is>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
       </c>
       <c r="B82" t="n">
         <v>4</v>
@@ -1999,11 +2380,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>RESPONSE_82</t>
-        </is>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
       </c>
       <c r="B83" t="n">
         <v>4</v>
@@ -2018,11 +2397,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>RESPONSE_83</t>
-        </is>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
       </c>
       <c r="B84" t="n">
         <v>4</v>
@@ -2037,49 +2414,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RESPONSE_84</t>
-        </is>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>3.648039256202874</v>
+        <v>3.648039256202873</v>
       </c>
       <c r="D85" t="n">
-        <v>3.648039256202874</v>
+        <v>3.648039256202873</v>
       </c>
       <c r="E85" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>RESPONSE_85</t>
-        </is>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
       </c>
       <c r="B86" t="n">
         <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>3.481419931090721</v>
+        <v>3.481419931090722</v>
       </c>
       <c r="D86" t="n">
-        <v>3.481419931090721</v>
+        <v>3.481419931090722</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>RESPONSE_86</t>
-        </is>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -2094,30 +2465,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RESPONSE_87</t>
-        </is>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
       </c>
       <c r="B88" t="n">
         <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>4.032426492841331</v>
+        <v>4.03242649284133</v>
       </c>
       <c r="D88" t="n">
-        <v>4.032426492841331</v>
+        <v>4.03242649284133</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>RESPONSE_88</t>
-        </is>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
       </c>
       <c r="B89" t="n">
         <v>2</v>
@@ -2132,11 +2499,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>RESPONSE_89</t>
-        </is>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
       </c>
       <c r="B90" t="n">
         <v>5</v>
@@ -2151,11 +2516,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>RESPONSE_90</t>
-        </is>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
       </c>
       <c r="B91" t="n">
         <v>3</v>
@@ -2170,11 +2533,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RESPONSE_91</t>
-        </is>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
       </c>
       <c r="B92" t="n">
         <v>4</v>
@@ -2189,49 +2550,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>RESPONSE_92</t>
-        </is>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>4.556835907898976</v>
+        <v>4.556835907898977</v>
       </c>
       <c r="D93" t="n">
-        <v>4.556835907898976</v>
+        <v>4.556835907898977</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>RESPONSE_93</t>
-        </is>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
       </c>
       <c r="B94" t="n">
         <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>5.237174245609361</v>
+        <v>5.237174245609362</v>
       </c>
       <c r="D94" t="n">
-        <v>5.237174245609361</v>
+        <v>5.237174245609362</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RESPONSE_94</t>
-        </is>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -2246,11 +2601,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>RESPONSE_95</t>
-        </is>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
       </c>
       <c r="B96" t="n">
         <v>3</v>
@@ -2265,11 +2618,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RESPONSE_96</t>
-        </is>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
       </c>
       <c r="B97" t="n">
         <v>4</v>
@@ -2284,11 +2635,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>RESPONSE_97</t>
-        </is>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
       </c>
       <c r="B98" t="n">
         <v>4</v>
@@ -2303,11 +2652,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>RESPONSE_98</t>
-        </is>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
       </c>
       <c r="B99" t="n">
         <v>3</v>
@@ -2322,11 +2669,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RESPONSE_99</t>
-        </is>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
       </c>
       <c r="B100" t="n">
         <v>2</v>
@@ -2341,11 +2686,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>RESPONSE_100</t>
-        </is>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -2360,30 +2703,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>RESPONSE_101</t>
-        </is>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
       </c>
       <c r="B102" t="n">
         <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>4.455495844556214</v>
+        <v>4.455495844556213</v>
       </c>
       <c r="D102" t="n">
-        <v>4.455495844556214</v>
+        <v>4.455495844556213</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>RESPONSE_102</t>
-        </is>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
       </c>
       <c r="B103" t="n">
         <v>5</v>
@@ -2398,11 +2737,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>RESPONSE_103</t>
-        </is>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
       </c>
       <c r="B104" t="n">
         <v>3</v>
@@ -2417,11 +2754,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>RESPONSE_104</t>
-        </is>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
       </c>
       <c r="B105" t="n">
         <v>3</v>
@@ -2436,11 +2771,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>RESPONSE_105</t>
-        </is>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
       </c>
       <c r="B106" t="n">
         <v>4</v>
@@ -2455,11 +2788,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>RESPONSE_106</t>
-        </is>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -2474,11 +2805,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>RESPONSE_107</t>
-        </is>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
       </c>
       <c r="B108" t="n">
         <v>4</v>
@@ -2493,11 +2822,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>RESPONSE_108</t>
-        </is>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
       </c>
       <c r="B109" t="n">
         <v>4</v>
@@ -2512,11 +2839,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>RESPONSE_109</t>
-        </is>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
       </c>
       <c r="B110" t="n">
         <v>3</v>
@@ -2531,11 +2856,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>RESPONSE_110</t>
-        </is>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
       </c>
       <c r="B111" t="n">
         <v>3</v>
@@ -2550,11 +2873,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>RESPONSE_111</t>
-        </is>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
       </c>
       <c r="B112" t="n">
         <v>3</v>
@@ -2569,30 +2890,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>RESPONSE_112</t>
-        </is>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
       </c>
       <c r="B113" t="n">
         <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>3.030543027881574</v>
+        <v>3.030543027881573</v>
       </c>
       <c r="D113" t="n">
-        <v>3.030543027881574</v>
+        <v>3.030543027881573</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>RESPONSE_113</t>
-        </is>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2607,30 +2924,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>RESPONSE_114</t>
-        </is>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
       </c>
       <c r="B115" t="n">
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>4.124622367758031</v>
+        <v>4.124622367758032</v>
       </c>
       <c r="D115" t="n">
-        <v>4.124622367758031</v>
+        <v>4.124622367758032</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>RESPONSE_115</t>
-        </is>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
       </c>
       <c r="B116" t="n">
         <v>4</v>
@@ -2645,11 +2958,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>RESPONSE_116</t>
-        </is>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
       </c>
       <c r="B117" t="n">
         <v>3</v>
@@ -2664,11 +2975,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>RESPONSE_117</t>
-        </is>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
       </c>
       <c r="B118" t="n">
         <v>4</v>
@@ -2683,11 +2992,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>RESPONSE_118</t>
-        </is>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
       </c>
       <c r="B119" t="n">
         <v>5</v>
@@ -2702,11 +3009,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>RESPONSE_119</t>
-        </is>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
       </c>
       <c r="B120" t="n">
         <v>2</v>
@@ -2721,11 +3026,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>RESPONSE_120</t>
-        </is>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
       </c>
       <c r="B121" t="n">
         <v>4</v>
@@ -2740,11 +3043,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>RESPONSE_121</t>
-        </is>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
       </c>
       <c r="B122" t="n">
         <v>4</v>
@@ -2759,30 +3060,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>RESPONSE_122</t>
-        </is>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
       </c>
       <c r="B123" t="n">
         <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>4.56206831129126</v>
+        <v>4.562068311291259</v>
       </c>
       <c r="D123" t="n">
-        <v>4.56206831129126</v>
+        <v>4.562068311291259</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>RESPONSE_123</t>
-        </is>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
       </c>
       <c r="B124" t="n">
         <v>4</v>
@@ -2797,11 +3094,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>RESPONSE_124</t>
-        </is>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
       </c>
       <c r="B125" t="n">
         <v>3</v>
@@ -2816,11 +3111,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>RESPONSE_125</t>
-        </is>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
       </c>
       <c r="B126" t="n">
         <v>2</v>
@@ -2835,11 +3128,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>RESPONSE_126</t>
-        </is>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
       </c>
       <c r="B127" t="n">
         <v>2</v>
@@ -2854,11 +3145,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>RESPONSE_127</t>
-        </is>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
       </c>
       <c r="B128" t="n">
         <v>4</v>
@@ -2873,11 +3162,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>RESPONSE_128</t>
-        </is>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
       </c>
       <c r="B129" t="n">
         <v>2</v>
@@ -2892,11 +3179,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>RESPONSE_129</t>
-        </is>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
       </c>
       <c r="B130" t="n">
         <v>5</v>
@@ -2911,11 +3196,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>RESPONSE_130</t>
-        </is>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
       </c>
       <c r="B131" t="n">
         <v>3</v>
@@ -2930,11 +3213,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>RESPONSE_131</t>
-        </is>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
       </c>
       <c r="B132" t="n">
         <v>4</v>
@@ -2949,11 +3230,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>RESPONSE_132</t>
-        </is>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
       </c>
       <c r="B133" t="n">
         <v>5</v>
@@ -2968,30 +3247,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>RESPONSE_133</t>
-        </is>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
       </c>
       <c r="B134" t="n">
         <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>5.084000704485519</v>
+        <v>5.084000704485518</v>
       </c>
       <c r="D134" t="n">
-        <v>5.084000704485519</v>
+        <v>5.084000704485518</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>RESPONSE_134</t>
-        </is>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
       </c>
       <c r="B135" t="n">
         <v>4</v>
@@ -3006,11 +3281,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>RESPONSE_135</t>
-        </is>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
       </c>
       <c r="B136" t="n">
         <v>3</v>
@@ -3025,30 +3298,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>RESPONSE_136</t>
-        </is>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
       </c>
       <c r="B137" t="n">
         <v>4</v>
       </c>
       <c r="C137" t="n">
-        <v>4.330862553588764</v>
+        <v>4.330862553588763</v>
       </c>
       <c r="D137" t="n">
-        <v>4.330862553588764</v>
+        <v>4.330862553588763</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>RESPONSE_137</t>
-        </is>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
       </c>
       <c r="B138" t="n">
         <v>4</v>
@@ -3063,11 +3332,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>RESPONSE_138</t>
-        </is>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
       </c>
       <c r="B139" t="n">
         <v>3</v>
@@ -3082,11 +3349,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>RESPONSE_139</t>
-        </is>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
       </c>
       <c r="B140" t="n">
         <v>2</v>
@@ -3101,30 +3366,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>RESPONSE_140</t>
-        </is>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
       </c>
       <c r="B141" t="n">
         <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>4.3981163728834</v>
+        <v>4.398116372883401</v>
       </c>
       <c r="D141" t="n">
-        <v>4.3981163728834</v>
+        <v>4.398116372883401</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>RESPONSE_141</t>
-        </is>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
       </c>
       <c r="B142" t="n">
         <v>4</v>
@@ -3139,11 +3400,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>RESPONSE_142</t>
-        </is>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
       </c>
       <c r="B143" t="n">
         <v>5</v>
@@ -3158,11 +3417,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>RESPONSE_143</t>
-        </is>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
       </c>
       <c r="B144" t="n">
         <v>3</v>
@@ -3177,11 +3434,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>RESPONSE_144</t>
-        </is>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
       </c>
       <c r="B145" t="n">
         <v>3</v>
@@ -3196,11 +3451,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>RESPONSE_145</t>
-        </is>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
       </c>
       <c r="B146" t="n">
         <v>4</v>
@@ -3215,30 +3468,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>RESPONSE_146</t>
-        </is>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
       </c>
       <c r="B147" t="n">
         <v>4</v>
       </c>
       <c r="C147" t="n">
-        <v>4.443792239832596</v>
+        <v>4.443792239832597</v>
       </c>
       <c r="D147" t="n">
-        <v>4.443792239832596</v>
+        <v>4.443792239832597</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>RESPONSE_147</t>
-        </is>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
       </c>
       <c r="B148" t="n">
         <v>4</v>
@@ -3253,11 +3502,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>RESPONSE_148</t>
-        </is>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
       </c>
       <c r="B149" t="n">
         <v>4</v>
@@ -3272,11 +3519,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>RESPONSE_149</t>
-        </is>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
       </c>
       <c r="B150" t="n">
         <v>3</v>
@@ -3291,11 +3536,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>RESPONSE_150</t>
-        </is>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
       </c>
       <c r="B151" t="n">
         <v>3</v>
@@ -3310,11 +3553,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>RESPONSE_151</t>
-        </is>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
       </c>
       <c r="B152" t="n">
         <v>3</v>
@@ -3329,11 +3570,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>RESPONSE_152</t>
-        </is>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
       </c>
       <c r="B153" t="n">
         <v>3</v>
@@ -3348,11 +3587,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>RESPONSE_153</t>
-        </is>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -3367,11 +3604,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>RESPONSE_154</t>
-        </is>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
       </c>
       <c r="B155" t="n">
         <v>4</v>
@@ -3386,11 +3621,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>RESPONSE_155</t>
-        </is>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
       </c>
       <c r="B156" t="n">
         <v>4</v>
@@ -3405,11 +3638,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>RESPONSE_156</t>
-        </is>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
       </c>
       <c r="B157" t="n">
         <v>3</v>
@@ -3424,11 +3655,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>RESPONSE_157</t>
-        </is>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
       </c>
       <c r="B158" t="n">
         <v>4</v>
@@ -3443,30 +3672,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>RESPONSE_158</t>
-        </is>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
       </c>
       <c r="B159" t="n">
         <v>5</v>
       </c>
       <c r="C159" t="n">
-        <v>4.901740499119372</v>
+        <v>4.901740499119373</v>
       </c>
       <c r="D159" t="n">
-        <v>4.901740499119372</v>
+        <v>4.901740499119373</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>RESPONSE_159</t>
-        </is>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -3481,11 +3706,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>RESPONSE_160</t>
-        </is>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
       </c>
       <c r="B161" t="n">
         <v>4</v>
@@ -3500,30 +3723,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>RESPONSE_161</t>
-        </is>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
       </c>
       <c r="B162" t="n">
         <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>4.173625218346568</v>
+        <v>4.173625218346569</v>
       </c>
       <c r="D162" t="n">
-        <v>4.173625218346568</v>
+        <v>4.173625218346569</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>RESPONSE_162</t>
-        </is>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
       </c>
       <c r="B163" t="n">
         <v>4</v>
@@ -3538,11 +3757,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>RESPONSE_163</t>
-        </is>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
       </c>
       <c r="B164" t="n">
         <v>4</v>
@@ -3557,11 +3774,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>RESPONSE_164</t>
-        </is>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
       </c>
       <c r="B165" t="n">
         <v>3</v>
@@ -3576,11 +3791,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>RESPONSE_165</t>
-        </is>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
       </c>
       <c r="B166" t="n">
         <v>2</v>
@@ -3595,11 +3808,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>RESPONSE_166</t>
-        </is>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
       </c>
       <c r="B167" t="n">
         <v>2</v>
@@ -3614,11 +3825,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>RESPONSE_167</t>
-        </is>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
       </c>
       <c r="B168" t="n">
         <v>4</v>
@@ -3633,11 +3842,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>RESPONSE_168</t>
-        </is>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -3652,11 +3859,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>RESPONSE_169</t>
-        </is>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
       </c>
       <c r="B170" t="n">
         <v>5</v>
@@ -3671,11 +3876,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>RESPONSE_170</t>
-        </is>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
       </c>
       <c r="B171" t="n">
         <v>3</v>
@@ -3690,11 +3893,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>RESPONSE_171</t>
-        </is>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
       </c>
       <c r="B172" t="n">
         <v>4</v>
@@ -3709,11 +3910,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>RESPONSE_172</t>
-        </is>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
       </c>
       <c r="B173" t="n">
         <v>5</v>
@@ -3728,30 +3927,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>RESPONSE_173</t>
-        </is>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
       </c>
       <c r="B174" t="n">
         <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>5.189589727583105</v>
+        <v>5.189589727583106</v>
       </c>
       <c r="D174" t="n">
-        <v>5.189589727583105</v>
+        <v>5.189589727583106</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>RESPONSE_174</t>
-        </is>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
       </c>
       <c r="B175" t="n">
         <v>4</v>
@@ -3766,11 +3961,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>RESPONSE_175</t>
-        </is>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
       </c>
       <c r="B176" t="n">
         <v>3</v>
@@ -3785,30 +3978,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>RESPONSE_176</t>
-        </is>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
       </c>
       <c r="B177" t="n">
         <v>4</v>
       </c>
       <c r="C177" t="n">
-        <v>4.140469536010327</v>
+        <v>4.140469536010326</v>
       </c>
       <c r="D177" t="n">
-        <v>4.140469536010327</v>
+        <v>4.140469536010326</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>RESPONSE_177</t>
-        </is>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
       </c>
       <c r="B178" t="n">
         <v>4</v>
@@ -3823,11 +4012,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>RESPONSE_178</t>
-        </is>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
       </c>
       <c r="B179" t="n">
         <v>3</v>
@@ -3842,11 +4029,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>RESPONSE_179</t>
-        </is>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
       </c>
       <c r="B180" t="n">
         <v>2</v>
@@ -3861,11 +4046,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>RESPONSE_180</t>
-        </is>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
       </c>
       <c r="B181" t="n">
         <v>4</v>
@@ -3880,11 +4063,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>RESPONSE_181</t>
-        </is>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
       </c>
       <c r="B182" t="n">
         <v>4</v>
@@ -3899,11 +4080,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>RESPONSE_182</t>
-        </is>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
       </c>
       <c r="B183" t="n">
         <v>5</v>
@@ -3918,11 +4097,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>RESPONSE_183</t>
-        </is>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
       </c>
       <c r="B184" t="n">
         <v>3</v>
@@ -3937,11 +4114,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>RESPONSE_184</t>
-        </is>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
       </c>
       <c r="B185" t="n">
         <v>3</v>
@@ -3956,11 +4131,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>RESPONSE_185</t>
-        </is>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
       </c>
       <c r="B186" t="n">
         <v>4</v>
@@ -3975,30 +4148,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>RESPONSE_186</t>
-        </is>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
       </c>
       <c r="B187" t="n">
         <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>4.463769077031312</v>
+        <v>4.463769077031311</v>
       </c>
       <c r="D187" t="n">
-        <v>4.463769077031312</v>
+        <v>4.463769077031311</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>RESPONSE_187</t>
-        </is>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
       </c>
       <c r="B188" t="n">
         <v>4</v>
@@ -4013,11 +4182,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>RESPONSE_188</t>
-        </is>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
       </c>
       <c r="B189" t="n">
         <v>4</v>
@@ -4032,11 +4199,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>RESPONSE_189</t>
-        </is>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
       </c>
       <c r="B190" t="n">
         <v>3</v>
@@ -4051,11 +4216,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>RESPONSE_190</t>
-        </is>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
       </c>
       <c r="B191" t="n">
         <v>3</v>
@@ -4070,11 +4233,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>RESPONSE_191</t>
-        </is>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
       </c>
       <c r="B192" t="n">
         <v>3</v>
@@ -4089,11 +4250,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>RESPONSE_192</t>
-        </is>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
       </c>
       <c r="B193" t="n">
         <v>3</v>
@@ -4108,11 +4267,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>RESPONSE_193</t>
-        </is>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -4127,30 +4284,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>RESPONSE_194</t>
-        </is>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
       </c>
       <c r="B195" t="n">
         <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>4.275248158145949</v>
+        <v>4.275248158145948</v>
       </c>
       <c r="D195" t="n">
-        <v>4.275248158145949</v>
+        <v>4.275248158145948</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>RESPONSE_195</t>
-        </is>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
       </c>
       <c r="B196" t="n">
         <v>4</v>
@@ -4165,11 +4318,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>RESPONSE_196</t>
-        </is>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
       </c>
       <c r="B197" t="n">
         <v>3</v>
@@ -4184,11 +4335,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>RESPONSE_197</t>
-        </is>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
       </c>
       <c r="B198" t="n">
         <v>4</v>
@@ -4203,11 +4352,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>RESPONSE_198</t>
-        </is>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
       </c>
       <c r="B199" t="n">
         <v>5</v>
@@ -4222,11 +4369,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>RESPONSE_199</t>
-        </is>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
       </c>
       <c r="B200" t="n">
         <v>2</v>
@@ -4241,11 +4386,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>RESPONSE_200</t>
-        </is>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
       </c>
       <c r="B201" t="n">
         <v>4</v>
@@ -4261,6 +4404,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>